--- a/DOC/教育資料/HTML_CSS_JS入門.xlsx
+++ b/DOC/教育資料/HTML_CSS_JS入門.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\workspace\ControlFiles\Develop-DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\教育資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B5804-93DA-41DE-B18F-7D64DD228843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42476847-1663-4489-88CD-20765705FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3851A6D9-C8D2-4E72-8A9A-E499CFB4C07D}"/>
+    <workbookView xWindow="2205" yWindow="465" windowWidth="25605" windowHeight="14880" activeTab="2" xr2:uid="{3851A6D9-C8D2-4E72-8A9A-E499CFB4C07D}"/>
   </bookViews>
   <sheets>
     <sheet name="概要説明" sheetId="1" r:id="rId1"/>
     <sheet name="参考資料" sheetId="2" r:id="rId2"/>
+    <sheet name="JS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -625,12 +626,62 @@
   <si>
     <t>.btn:focus { outline-style: none; }</t>
   </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.javadrive.jp/javascript/</t>
+  </si>
+  <si>
+    <t>HTMLと合わせて</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;form&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;input type="hidden"&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;input type="text"&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;input type="checkbox"&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;input type="radio"&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;input type="button"&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>&lt;/table&gt;</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +773,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -746,12 +811,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,8 +869,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C464A3B-0990-44A0-A41D-A26448949655}">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3080,7 +3152,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3164,4 +3236,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493085AA-3A82-481D-B0AE-CA06D91ED9CD}">
+  <dimension ref="B2:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>